--- a/Python files and database/enter_for_video.xlsx
+++ b/Python files and database/enter_for_video.xlsx
@@ -27,29 +27,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Місяць(1-12)</t>
   </si>
   <si>
-    <t>Середня температура повітря (°C)</t>
-  </si>
-  <si>
-    <t>Відносна вологість повітря (%)</t>
+    <t>Температура повітря (°C)</t>
+  </si>
+  <si>
+    <t>Кількість опадів (мм)</t>
   </si>
   <si>
     <t>Швидкість вітру (м/с)</t>
   </si>
   <si>
-    <t>Кількість опадів (мм)</t>
+    <t>Відносна вологість (%)</t>
   </si>
   <si>
     <t>Сонячна радіація (МДж/м²)</t>
   </si>
   <si>
-    <t>Тривалість сонячного дня (годин)</t>
-  </si>
-  <si>
     <t>Температура ґрунту (°C)</t>
   </si>
   <si>
@@ -59,27 +56,12 @@
     <t>pH ґрунту</t>
   </si>
   <si>
-    <t>Вміст органічної речовини в ґрунті (%)</t>
-  </si>
-  <si>
-    <t>Вміст важких металів у ґрунті (мг/кг)</t>
-  </si>
-  <si>
-    <t>Вміст викидів пилу у повітрі (мг/м³)</t>
-  </si>
-  <si>
-    <t>Концентрація діоксиду азоту (NO₂, мг/м³)</t>
-  </si>
-  <si>
-    <t>Концентрація діоксиду сірки (SO₂, мг/м³)</t>
-  </si>
-  <si>
-    <t>Присутність фосфатів у водоймах (мг/л)</t>
-  </si>
-  <si>
     <t>Біомаса рослинності (кг/м²)</t>
   </si>
   <si>
+    <t>Кількість видів рослин</t>
+  </si>
+  <si>
     <t>Чисельність травоїдних тварин (особини/км²)</t>
   </si>
   <si>
@@ -89,7 +71,7 @@
     <t>Чисельність декомпозиторів (особини/км²)</t>
   </si>
   <si>
-    <t>Різноманіття видів рослин (кількість видів)</t>
+    <t>Смертність тварин (%)</t>
   </si>
 </sst>
 </file>
@@ -1083,15 +1065,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="25.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="21.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="22.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="28.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="24.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="20.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="10.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="28.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="22.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="46" customWidth="1"/>
+    <col min="13" max="13" width="35.5555555555556" customWidth="1"/>
+    <col min="14" max="14" width="43.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="22.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,88 +1136,52 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-6.674109555</v>
+        <v>1.9</v>
       </c>
       <c r="C2">
-        <v>67.37088278</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>10.36478649</v>
+        <v>3.9</v>
       </c>
       <c r="E2">
-        <v>41.70858864</v>
+        <v>72</v>
       </c>
       <c r="F2">
-        <v>21.2624871</v>
+        <v>270.4</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H2">
-        <v>-6.326916392</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>11.45378584</v>
+        <v>7.1</v>
       </c>
       <c r="J2">
-        <v>5.675760984</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
-        <v>2.180266926</v>
+        <v>63</v>
       </c>
       <c r="L2">
-        <v>1.421989825</v>
+        <v>76</v>
       </c>
       <c r="M2">
-        <v>50.96680402</v>
+        <v>23</v>
       </c>
       <c r="N2">
-        <v>16.52455644</v>
+        <v>4851</v>
       </c>
       <c r="O2">
-        <v>14.31351609</v>
-      </c>
-      <c r="P2">
-        <v>0.370690087</v>
-      </c>
-      <c r="Q2">
-        <v>2.420600301</v>
-      </c>
-      <c r="R2">
-        <v>90.69883816</v>
-      </c>
-      <c r="S2">
-        <v>9.300705794</v>
-      </c>
-      <c r="T2">
-        <v>4442.842527</v>
-      </c>
-      <c r="U2">
-        <v>116.8304842</v>
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>

--- a/Python files and database/enter_for_video.xlsx
+++ b/Python files and database/enter_for_video.xlsx
@@ -84,7 +84,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +95,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -569,148 +562,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1061,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1142,28 +1135,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="E2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2">
-        <v>270.4</v>
+        <v>239.7</v>
       </c>
       <c r="G2">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>7.1</v>
+        <v>7.02</v>
       </c>
       <c r="J2">
         <v>0.1</v>
@@ -1172,16 +1165,16 @@
         <v>63</v>
       </c>
       <c r="L2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="M2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2">
-        <v>4851</v>
+        <v>4564</v>
       </c>
       <c r="O2">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
